--- a/Manual Testing/Project.xlsx
+++ b/Manual Testing/Project.xlsx
@@ -31434,7 +31434,7 @@
   <sheetPr/>
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="J38" sqref="J38:J42"/>
     </sheetView>
   </sheetViews>
@@ -32261,7 +32261,7 @@
   <sheetPr/>
   <dimension ref="A3:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -32513,7 +32513,7 @@
   <sheetPr/>
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="J17" sqref="J17:J20"/>
     </sheetView>
   </sheetViews>
@@ -34080,7 +34080,7 @@
   <sheetPr/>
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
@@ -34447,7 +34447,7 @@
   <sheetPr/>
   <dimension ref="A5:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -34718,7 +34718,7 @@
   <sheetPr/>
   <dimension ref="A3:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -34995,7 +34995,7 @@
   <sheetPr/>
   <dimension ref="A3:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -35265,7 +35265,7 @@
   <sheetPr/>
   <dimension ref="A4:Z13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
